--- a/TARJETA DE LIQUIDACION chacabamba/TARJETA-2014.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETA-2014.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="719" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="719" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MODELO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -567,6 +567,31 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Usuario de Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="J14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PENDIENTE POR RENDIR  200 SOLES
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="267">
   <si>
@@ -1597,7 +1622,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1619,6 +1644,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,7 +2019,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2457,6 +2488,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2607,23 +2659,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="32" fillId="5" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2953,42 +2990,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -3008,23 +3045,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="178"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -3147,38 +3184,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="168" t="s">
+      <c r="A12" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="171" t="s">
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="171" t="s">
+      <c r="F12" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="173" t="s">
+      <c r="G12" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="175" t="s">
+      <c r="H12" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="176"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="176"/>
-      <c r="M12" s="176"/>
-      <c r="N12" s="177"/>
-      <c r="O12" s="173" t="s">
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="180" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="169"/>
+      <c r="A13" s="176"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -3188,9 +3225,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="172"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="169"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="176"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3212,7 +3249,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="169"/>
+      <c r="O13" s="176"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -3783,14 +3820,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="165" t="s">
+      <c r="A32" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="167"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="174"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -3823,42 +3860,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="160" t="s">
+      <c r="A35" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="160"/>
-      <c r="C35" s="160"/>
-      <c r="D35" s="160"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
-      <c r="K35" s="160"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="160"/>
-      <c r="N35" s="160"/>
-      <c r="O35" s="160"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
+      <c r="K35" s="167"/>
+      <c r="L35" s="167"/>
+      <c r="M35" s="167"/>
+      <c r="N35" s="167"/>
+      <c r="O35" s="167"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="161" t="s">
+      <c r="A36" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="161"/>
-      <c r="M36" s="161"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="161"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="168"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="168"/>
+      <c r="N36" s="168"/>
+      <c r="O36" s="168"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -3981,38 +4018,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="168" t="s">
+      <c r="A43" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="170" t="s">
+      <c r="B43" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="171" t="s">
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="171" t="s">
+      <c r="F43" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="173" t="s">
+      <c r="G43" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="175" t="s">
+      <c r="H43" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="176"/>
-      <c r="J43" s="176"/>
-      <c r="K43" s="176"/>
-      <c r="L43" s="176"/>
-      <c r="M43" s="176"/>
-      <c r="N43" s="177"/>
-      <c r="O43" s="173" t="s">
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="184"/>
+      <c r="O43" s="180" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="169"/>
+      <c r="A44" s="176"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -4022,9 +4059,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="172"/>
-      <c r="F44" s="174"/>
-      <c r="G44" s="169"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="181"/>
+      <c r="G44" s="176"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -4046,17 +4083,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="169"/>
+      <c r="O44" s="176"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="164"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="171"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -4511,14 +4548,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="165" t="s">
+      <c r="A66" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="166"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="166"/>
-      <c r="E66" s="166"/>
-      <c r="F66" s="167"/>
+      <c r="B66" s="173"/>
+      <c r="C66" s="173"/>
+      <c r="D66" s="173"/>
+      <c r="E66" s="173"/>
+      <c r="F66" s="174"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -4551,42 +4588,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="160" t="s">
+      <c r="A69" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="160"/>
-      <c r="C69" s="160"/>
-      <c r="D69" s="160"/>
-      <c r="E69" s="160"/>
-      <c r="F69" s="160"/>
-      <c r="G69" s="160"/>
-      <c r="H69" s="160"/>
-      <c r="I69" s="160"/>
-      <c r="J69" s="160"/>
-      <c r="K69" s="160"/>
-      <c r="L69" s="160"/>
-      <c r="M69" s="160"/>
-      <c r="N69" s="160"/>
-      <c r="O69" s="160"/>
+      <c r="B69" s="167"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="167"/>
+      <c r="E69" s="167"/>
+      <c r="F69" s="167"/>
+      <c r="G69" s="167"/>
+      <c r="H69" s="167"/>
+      <c r="I69" s="167"/>
+      <c r="J69" s="167"/>
+      <c r="K69" s="167"/>
+      <c r="L69" s="167"/>
+      <c r="M69" s="167"/>
+      <c r="N69" s="167"/>
+      <c r="O69" s="167"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="161" t="s">
+      <c r="A70" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="161"/>
-      <c r="C70" s="161"/>
-      <c r="D70" s="161"/>
-      <c r="E70" s="161"/>
-      <c r="F70" s="161"/>
-      <c r="G70" s="161"/>
-      <c r="H70" s="161"/>
-      <c r="I70" s="161"/>
-      <c r="J70" s="161"/>
-      <c r="K70" s="161"/>
-      <c r="L70" s="161"/>
-      <c r="M70" s="161"/>
-      <c r="N70" s="161"/>
-      <c r="O70" s="161"/>
+      <c r="B70" s="168"/>
+      <c r="C70" s="168"/>
+      <c r="D70" s="168"/>
+      <c r="E70" s="168"/>
+      <c r="F70" s="168"/>
+      <c r="G70" s="168"/>
+      <c r="H70" s="168"/>
+      <c r="I70" s="168"/>
+      <c r="J70" s="168"/>
+      <c r="K70" s="168"/>
+      <c r="L70" s="168"/>
+      <c r="M70" s="168"/>
+      <c r="N70" s="168"/>
+      <c r="O70" s="168"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -4709,38 +4746,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="168" t="s">
+      <c r="A77" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="170" t="s">
+      <c r="B77" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="170"/>
-      <c r="D77" s="170"/>
-      <c r="E77" s="171" t="s">
+      <c r="C77" s="177"/>
+      <c r="D77" s="177"/>
+      <c r="E77" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="171" t="s">
+      <c r="F77" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="173" t="s">
+      <c r="G77" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="175" t="s">
+      <c r="H77" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="176"/>
-      <c r="J77" s="176"/>
-      <c r="K77" s="176"/>
-      <c r="L77" s="176"/>
-      <c r="M77" s="176"/>
-      <c r="N77" s="177"/>
-      <c r="O77" s="173" t="s">
+      <c r="I77" s="183"/>
+      <c r="J77" s="183"/>
+      <c r="K77" s="183"/>
+      <c r="L77" s="183"/>
+      <c r="M77" s="183"/>
+      <c r="N77" s="184"/>
+      <c r="O77" s="180" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="169"/>
+      <c r="A78" s="176"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -4750,9 +4787,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="172"/>
-      <c r="F78" s="174"/>
-      <c r="G78" s="169"/>
+      <c r="E78" s="179"/>
+      <c r="F78" s="181"/>
+      <c r="G78" s="176"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -4774,17 +4811,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="169"/>
+      <c r="O78" s="176"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
+      <c r="A79" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="163"/>
-      <c r="C79" s="163"/>
-      <c r="D79" s="163"/>
-      <c r="E79" s="163"/>
-      <c r="F79" s="164"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="170"/>
+      <c r="F79" s="171"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -5217,14 +5254,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="165" t="s">
+      <c r="A99" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="166"/>
-      <c r="C99" s="166"/>
-      <c r="D99" s="166"/>
-      <c r="E99" s="166"/>
-      <c r="F99" s="167"/>
+      <c r="B99" s="173"/>
+      <c r="C99" s="173"/>
+      <c r="D99" s="173"/>
+      <c r="E99" s="173"/>
+      <c r="F99" s="174"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -5310,42 +5347,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="160" t="s">
+      <c r="A105" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="160"/>
-      <c r="C105" s="160"/>
-      <c r="D105" s="160"/>
-      <c r="E105" s="160"/>
-      <c r="F105" s="160"/>
-      <c r="G105" s="160"/>
-      <c r="H105" s="160"/>
-      <c r="I105" s="160"/>
-      <c r="J105" s="160"/>
-      <c r="K105" s="160"/>
-      <c r="L105" s="160"/>
-      <c r="M105" s="160"/>
-      <c r="N105" s="160"/>
-      <c r="O105" s="160"/>
+      <c r="B105" s="167"/>
+      <c r="C105" s="167"/>
+      <c r="D105" s="167"/>
+      <c r="E105" s="167"/>
+      <c r="F105" s="167"/>
+      <c r="G105" s="167"/>
+      <c r="H105" s="167"/>
+      <c r="I105" s="167"/>
+      <c r="J105" s="167"/>
+      <c r="K105" s="167"/>
+      <c r="L105" s="167"/>
+      <c r="M105" s="167"/>
+      <c r="N105" s="167"/>
+      <c r="O105" s="167"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="161" t="s">
+      <c r="A106" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="161"/>
-      <c r="C106" s="161"/>
-      <c r="D106" s="161"/>
-      <c r="E106" s="161"/>
-      <c r="F106" s="161"/>
-      <c r="G106" s="161"/>
-      <c r="H106" s="161"/>
-      <c r="I106" s="161"/>
-      <c r="J106" s="161"/>
-      <c r="K106" s="161"/>
-      <c r="L106" s="161"/>
-      <c r="M106" s="161"/>
-      <c r="N106" s="161"/>
-      <c r="O106" s="161"/>
+      <c r="B106" s="168"/>
+      <c r="C106" s="168"/>
+      <c r="D106" s="168"/>
+      <c r="E106" s="168"/>
+      <c r="F106" s="168"/>
+      <c r="G106" s="168"/>
+      <c r="H106" s="168"/>
+      <c r="I106" s="168"/>
+      <c r="J106" s="168"/>
+      <c r="K106" s="168"/>
+      <c r="L106" s="168"/>
+      <c r="M106" s="168"/>
+      <c r="N106" s="168"/>
+      <c r="O106" s="168"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -5365,23 +5402,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="178" t="s">
+      <c r="A108" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="178"/>
-      <c r="C108" s="178"/>
-      <c r="D108" s="178"/>
-      <c r="E108" s="178"/>
-      <c r="F108" s="178"/>
-      <c r="G108" s="178"/>
-      <c r="H108" s="178"/>
-      <c r="I108" s="178"/>
-      <c r="J108" s="178"/>
-      <c r="K108" s="178"/>
-      <c r="L108" s="178"/>
-      <c r="M108" s="178"/>
-      <c r="N108" s="178"/>
-      <c r="O108" s="178"/>
+      <c r="B108" s="185"/>
+      <c r="C108" s="185"/>
+      <c r="D108" s="185"/>
+      <c r="E108" s="185"/>
+      <c r="F108" s="185"/>
+      <c r="G108" s="185"/>
+      <c r="H108" s="185"/>
+      <c r="I108" s="185"/>
+      <c r="J108" s="185"/>
+      <c r="K108" s="185"/>
+      <c r="L108" s="185"/>
+      <c r="M108" s="185"/>
+      <c r="N108" s="185"/>
+      <c r="O108" s="185"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -5504,38 +5541,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="168" t="s">
+      <c r="A115" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="170" t="s">
+      <c r="B115" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="170"/>
-      <c r="D115" s="170"/>
-      <c r="E115" s="171" t="s">
+      <c r="C115" s="177"/>
+      <c r="D115" s="177"/>
+      <c r="E115" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="171" t="s">
+      <c r="F115" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="173" t="s">
+      <c r="G115" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="175" t="s">
+      <c r="H115" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="176"/>
-      <c r="J115" s="176"/>
-      <c r="K115" s="176"/>
-      <c r="L115" s="176"/>
-      <c r="M115" s="176"/>
-      <c r="N115" s="177"/>
-      <c r="O115" s="173" t="s">
+      <c r="I115" s="183"/>
+      <c r="J115" s="183"/>
+      <c r="K115" s="183"/>
+      <c r="L115" s="183"/>
+      <c r="M115" s="183"/>
+      <c r="N115" s="184"/>
+      <c r="O115" s="180" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="169"/>
+      <c r="A116" s="176"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -5545,9 +5582,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="172"/>
-      <c r="F116" s="174"/>
-      <c r="G116" s="169"/>
+      <c r="E116" s="179"/>
+      <c r="F116" s="181"/>
+      <c r="G116" s="176"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -5569,7 +5606,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="169"/>
+      <c r="O116" s="176"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -5698,14 +5735,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="165" t="s">
+      <c r="A122" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="166"/>
-      <c r="C122" s="166"/>
-      <c r="D122" s="166"/>
-      <c r="E122" s="166"/>
-      <c r="F122" s="167"/>
+      <c r="B122" s="173"/>
+      <c r="C122" s="173"/>
+      <c r="D122" s="173"/>
+      <c r="E122" s="173"/>
+      <c r="F122" s="174"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -5805,7 +5842,7 @@
   <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5826,42 +5863,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -5881,23 +5918,23 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -6020,14 +6057,14 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
       <c r="E11" s="149" t="s">
         <v>10</v>
       </c>
@@ -6037,19 +6074,19 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="175" t="s">
+      <c r="H11" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="176"/>
-      <c r="N11" s="176"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="183"/>
       <c r="O11" s="126"/>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182"/>
+      <c r="A12" s="189"/>
       <c r="B12" s="131" t="s">
         <v>14</v>
       </c>
@@ -6059,9 +6096,9 @@
       <c r="D12" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="210"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="212"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="162"/>
       <c r="H12" s="131" t="s">
         <v>204</v>
       </c>
@@ -6093,7 +6130,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118">
         <v>1</v>
       </c>
@@ -8411,7 +8448,7 @@
       <c r="P73" s="130"/>
       <c r="Q73" s="130"/>
     </row>
-    <row r="74" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="118">
         <v>62</v>
       </c>
@@ -9724,14 +9761,14 @@
       <c r="Q107" s="130"/>
     </row>
     <row r="108" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="179" t="s">
+      <c r="A108" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B108" s="180"/>
-      <c r="C108" s="180"/>
-      <c r="D108" s="180"/>
-      <c r="E108" s="180"/>
-      <c r="F108" s="181"/>
+      <c r="B108" s="187"/>
+      <c r="C108" s="187"/>
+      <c r="D108" s="187"/>
+      <c r="E108" s="187"/>
+      <c r="F108" s="188"/>
       <c r="G108" s="132">
         <f t="shared" ref="G108:N108" si="3">SUM(G13:G107)</f>
         <v>1608424.6799999995</v>
@@ -9791,9 +9828,9 @@
     </row>
   </sheetData>
   <autoFilter ref="E12:O109">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="2387"/>
+        <filter val="1371"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9815,8 +9852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9832,34 +9869,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -9875,19 +9912,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -9986,14 +10023,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
       <c r="E11" s="149" t="s">
         <v>10</v>
       </c>
@@ -10003,13 +10040,13 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="169"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -10071,10 +10108,10 @@
         <v>20000</v>
       </c>
       <c r="H13" s="142"/>
-      <c r="I13" s="142">
+      <c r="I13" s="217">
         <v>10000</v>
       </c>
-      <c r="J13" s="142">
+      <c r="J13" s="217">
         <v>10000</v>
       </c>
       <c r="K13" s="143" t="s">
@@ -13181,14 +13218,14 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="179" t="s">
+      <c r="A100" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="180"/>
-      <c r="C100" s="180"/>
-      <c r="D100" s="180"/>
-      <c r="E100" s="180"/>
-      <c r="F100" s="181"/>
+      <c r="B100" s="187"/>
+      <c r="C100" s="187"/>
+      <c r="D100" s="187"/>
+      <c r="E100" s="187"/>
+      <c r="F100" s="188"/>
       <c r="G100" s="132">
         <f>SUM(G13:G99)</f>
         <v>1581699.3999999994</v>
@@ -13234,10 +13271,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -13258,35 +13295,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
       <c r="L1" s="157"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="158"/>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13304,19 +13341,19 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
       <c r="L4" s="156"/>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13334,10 +13371,10 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="184"/>
+      <c r="B6" s="191"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
@@ -13354,50 +13391,50 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:16" s="152" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="185"/>
+      <c r="B7" s="192"/>
       <c r="C7" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="183" t="s">
+      <c r="D7" s="190" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="190"/>
       <c r="L7" s="159"/>
     </row>
     <row r="8" spans="1:16" s="152" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="185"/>
+      <c r="B8" s="192"/>
       <c r="C8" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="183" t="s">
+      <c r="D8" s="190" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="190"/>
       <c r="L8" s="159"/>
     </row>
     <row r="9" spans="1:16" s="152" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="186" t="s">
+      <c r="A9" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="186"/>
+      <c r="B9" s="193"/>
       <c r="C9" s="153" t="s">
         <v>7</v>
       </c>
@@ -13430,31 +13467,31 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="171" t="s">
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="171" t="s">
+      <c r="F11" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="173" t="s">
+      <c r="G11" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
       <c r="K11" s="126"/>
-      <c r="L11" s="213"/>
+      <c r="L11" s="163"/>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="169"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -13464,9 +13501,9 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="172"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="169"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="176"/>
       <c r="H12" s="2" t="s">
         <v>208</v>
       </c>
@@ -13479,7 +13516,7 @@
       <c r="K12" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="213"/>
+      <c r="L12" s="163"/>
       <c r="M12" s="150" t="s">
         <v>247</v>
       </c>
@@ -13518,7 +13555,7 @@
       <c r="K13" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="L13" s="214"/>
+      <c r="L13" s="164"/>
       <c r="M13" t="s">
         <v>253</v>
       </c>
@@ -13554,13 +13591,13 @@
       </c>
       <c r="H14" s="142"/>
       <c r="I14" s="142"/>
-      <c r="J14" s="142">
+      <c r="J14" s="166">
         <v>3000</v>
       </c>
       <c r="K14" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="L14" s="214"/>
+      <c r="L14" s="164"/>
       <c r="M14" t="s">
         <v>253</v>
       </c>
@@ -13602,7 +13639,7 @@
       <c r="K15" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="L15" s="214"/>
+      <c r="L15" s="164"/>
       <c r="M15" t="s">
         <v>253</v>
       </c>
@@ -13644,7 +13681,7 @@
       <c r="K16" s="136" t="s">
         <v>239</v>
       </c>
-      <c r="L16" s="214"/>
+      <c r="L16" s="164"/>
       <c r="M16" t="s">
         <v>253</v>
       </c>
@@ -13686,7 +13723,7 @@
       <c r="K17" s="136" t="s">
         <v>228</v>
       </c>
-      <c r="L17" s="214"/>
+      <c r="L17" s="164"/>
       <c r="M17" t="s">
         <v>253</v>
       </c>
@@ -13731,7 +13768,7 @@
       <c r="K18" s="136" t="s">
         <v>227</v>
       </c>
-      <c r="L18" s="214"/>
+      <c r="L18" s="164"/>
       <c r="M18" t="s">
         <v>253</v>
       </c>
@@ -13776,7 +13813,7 @@
       <c r="K19" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="L19" s="214"/>
+      <c r="L19" s="164"/>
       <c r="M19" t="s">
         <v>253</v>
       </c>
@@ -13791,14 +13828,14 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="180"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="181"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="188"/>
       <c r="G20" s="133">
         <f t="shared" ref="G20:H20" si="1">SUM(G13:G19)</f>
         <v>25507.279999999999</v>
@@ -13816,7 +13853,7 @@
         <v>9800</v>
       </c>
       <c r="K20" s="117"/>
-      <c r="L20" s="215"/>
+      <c r="L20" s="165"/>
     </row>
   </sheetData>
   <autoFilter ref="K12:K21"/>
@@ -13846,6 +13883,7 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="12" max="1048575" man="1"/>
   </colBreaks>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13876,42 +13914,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -13931,23 +13969,23 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="185" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -14070,38 +14108,38 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="171" t="s">
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="171" t="s">
+      <c r="F11" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="173" t="s">
+      <c r="G11" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="175" t="s">
+      <c r="H11" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="176"/>
-      <c r="N11" s="177"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="184"/>
       <c r="O11" s="126" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="169"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -14111,9 +14149,9 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="172"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="169"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="176"/>
       <c r="H12" s="2" t="s">
         <v>204</v>
       </c>
@@ -14188,14 +14226,14 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="179" t="s">
+      <c r="A14" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="180"/>
-      <c r="C14" s="180"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="181"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="188"/>
       <c r="G14" s="132">
         <f t="shared" ref="G14:N14" si="0">SUM(G13:G13)</f>
         <v>1218</v>
@@ -14293,34 +14331,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -14336,19 +14374,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -14447,14 +14485,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
       <c r="E11" s="149" t="s">
         <v>10</v>
       </c>
@@ -14464,13 +14502,13 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="169"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -16083,14 +16121,14 @@
       <c r="M99" s="130"/>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="179" t="s">
+      <c r="A100" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="180"/>
-      <c r="C100" s="180"/>
-      <c r="D100" s="180"/>
-      <c r="E100" s="180"/>
-      <c r="F100" s="181"/>
+      <c r="B100" s="187"/>
+      <c r="C100" s="187"/>
+      <c r="D100" s="187"/>
+      <c r="E100" s="187"/>
+      <c r="F100" s="188"/>
       <c r="G100" s="132">
         <f>SUM(G13:G99)</f>
         <v>82715.200000000012</v>
@@ -16235,34 +16273,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -16278,19 +16316,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -16389,14 +16427,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
       <c r="E11" s="149" t="s">
         <v>10</v>
       </c>
@@ -16406,13 +16444,13 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="169"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -18025,14 +18063,14 @@
       <c r="M99" s="130"/>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="179" t="s">
+      <c r="A100" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="180"/>
-      <c r="C100" s="180"/>
-      <c r="D100" s="180"/>
-      <c r="E100" s="180"/>
-      <c r="F100" s="181"/>
+      <c r="B100" s="187"/>
+      <c r="C100" s="187"/>
+      <c r="D100" s="187"/>
+      <c r="E100" s="187"/>
+      <c r="F100" s="188"/>
       <c r="G100" s="132">
         <f>SUM(G13:G99)</f>
         <v>82715.200000000012</v>
@@ -18185,21 +18223,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -18217,21 +18255,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -18341,56 +18379,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="187" t="s">
+      <c r="B10" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="189" t="s">
+      <c r="C10" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="191" t="s">
+      <c r="D10" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="189" t="s">
+      <c r="E10" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="189" t="s">
+      <c r="F10" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="189" t="s">
+      <c r="G10" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="189" t="s">
+      <c r="H10" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="193" t="s">
+      <c r="I10" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="189" t="s">
+      <c r="J10" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="189" t="s">
+      <c r="K10" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="189" t="s">
+      <c r="L10" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="195" t="s">
+      <c r="M10" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="196"/>
+      <c r="N10" s="203"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="188"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="190"/>
-      <c r="L11" s="190"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="197"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -18525,31 +18563,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="197" t="s">
+      <c r="B18" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="198"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="199"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="206"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="200"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="202"/>
+      <c r="J18" s="207"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="208"/>
+      <c r="N18" s="209"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="209" t="s">
+      <c r="M20" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="209"/>
+      <c r="N20" s="216"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -18571,21 +18609,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="185"/>
+      <c r="M23" s="185"/>
+      <c r="N23" s="185"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -18603,21 +18641,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="178" t="s">
+      <c r="B25" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="178"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="185"/>
+      <c r="L25" s="185"/>
+      <c r="M25" s="185"/>
+      <c r="N25" s="185"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -18727,56 +18765,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="187" t="s">
+      <c r="B31" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="189" t="s">
+      <c r="C31" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="191" t="s">
+      <c r="D31" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="189" t="s">
+      <c r="E31" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="189" t="s">
+      <c r="F31" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="189" t="s">
+      <c r="G31" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="189" t="s">
+      <c r="H31" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="193" t="s">
+      <c r="I31" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="189" t="s">
+      <c r="J31" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="189" t="s">
+      <c r="K31" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="189" t="s">
+      <c r="L31" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="195" t="s">
+      <c r="M31" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="196"/>
+      <c r="N31" s="203"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="188"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="190"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="190"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="190"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="197"/>
+      <c r="L32" s="197"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -18870,31 +18908,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="203" t="s">
+      <c r="B38" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="204"/>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="205"/>
+      <c r="C38" s="211"/>
+      <c r="D38" s="211"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="212"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="206"/>
-      <c r="K38" s="207"/>
-      <c r="L38" s="207"/>
-      <c r="M38" s="207"/>
-      <c r="N38" s="208"/>
+      <c r="J38" s="213"/>
+      <c r="K38" s="214"/>
+      <c r="L38" s="214"/>
+      <c r="M38" s="214"/>
+      <c r="N38" s="215"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="209" t="s">
+      <c r="M40" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="209"/>
+      <c r="N40" s="216"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -18916,21 +18954,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="178" t="s">
+      <c r="B43" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="178"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="178"/>
-      <c r="K43" s="178"/>
-      <c r="L43" s="178"/>
-      <c r="M43" s="178"/>
-      <c r="N43" s="178"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="185"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="185"/>
+      <c r="G43" s="185"/>
+      <c r="H43" s="185"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="185"/>
+      <c r="K43" s="185"/>
+      <c r="L43" s="185"/>
+      <c r="M43" s="185"/>
+      <c r="N43" s="185"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -18948,21 +18986,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="178" t="s">
+      <c r="B45" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="178"/>
-      <c r="K45" s="178"/>
-      <c r="L45" s="178"/>
-      <c r="M45" s="178"/>
-      <c r="N45" s="178"/>
+      <c r="C45" s="185"/>
+      <c r="D45" s="185"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="185"/>
+      <c r="K45" s="185"/>
+      <c r="L45" s="185"/>
+      <c r="M45" s="185"/>
+      <c r="N45" s="185"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -19072,56 +19110,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="187" t="s">
+      <c r="B51" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="189" t="s">
+      <c r="C51" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="191" t="s">
+      <c r="D51" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="189" t="s">
+      <c r="E51" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="189" t="s">
+      <c r="F51" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="189" t="s">
+      <c r="G51" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="189" t="s">
+      <c r="H51" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="193" t="s">
+      <c r="I51" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="189" t="s">
+      <c r="J51" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="189" t="s">
+      <c r="K51" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="189" t="s">
+      <c r="L51" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="195" t="s">
+      <c r="M51" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="196"/>
+      <c r="N51" s="203"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="188"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="192"/>
-      <c r="E52" s="190"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="190"/>
-      <c r="H52" s="190"/>
-      <c r="I52" s="194"/>
-      <c r="J52" s="190"/>
-      <c r="K52" s="190"/>
-      <c r="L52" s="190"/>
+      <c r="B52" s="195"/>
+      <c r="C52" s="197"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="197"/>
+      <c r="F52" s="197"/>
+      <c r="G52" s="197"/>
+      <c r="H52" s="197"/>
+      <c r="I52" s="201"/>
+      <c r="J52" s="197"/>
+      <c r="K52" s="197"/>
+      <c r="L52" s="197"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -19198,31 +19236,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="203" t="s">
+      <c r="B57" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="204"/>
-      <c r="D57" s="204"/>
-      <c r="E57" s="204"/>
-      <c r="F57" s="204"/>
-      <c r="G57" s="204"/>
-      <c r="H57" s="205"/>
+      <c r="C57" s="211"/>
+      <c r="D57" s="211"/>
+      <c r="E57" s="211"/>
+      <c r="F57" s="211"/>
+      <c r="G57" s="211"/>
+      <c r="H57" s="212"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="206"/>
-      <c r="K57" s="207"/>
-      <c r="L57" s="207"/>
-      <c r="M57" s="207"/>
-      <c r="N57" s="208"/>
+      <c r="J57" s="213"/>
+      <c r="K57" s="214"/>
+      <c r="L57" s="214"/>
+      <c r="M57" s="214"/>
+      <c r="N57" s="215"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="209" t="s">
+      <c r="M59" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="209"/>
+      <c r="N59" s="216"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -19252,21 +19290,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="178" t="s">
+      <c r="B64" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="178"/>
-      <c r="D64" s="178"/>
-      <c r="E64" s="178"/>
-      <c r="F64" s="178"/>
-      <c r="G64" s="178"/>
-      <c r="H64" s="178"/>
-      <c r="I64" s="178"/>
-      <c r="J64" s="178"/>
-      <c r="K64" s="178"/>
-      <c r="L64" s="178"/>
-      <c r="M64" s="178"/>
-      <c r="N64" s="178"/>
+      <c r="C64" s="185"/>
+      <c r="D64" s="185"/>
+      <c r="E64" s="185"/>
+      <c r="F64" s="185"/>
+      <c r="G64" s="185"/>
+      <c r="H64" s="185"/>
+      <c r="I64" s="185"/>
+      <c r="J64" s="185"/>
+      <c r="K64" s="185"/>
+      <c r="L64" s="185"/>
+      <c r="M64" s="185"/>
+      <c r="N64" s="185"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -19284,21 +19322,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="178" t="s">
+      <c r="B66" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="178"/>
-      <c r="D66" s="178"/>
-      <c r="E66" s="178"/>
-      <c r="F66" s="178"/>
-      <c r="G66" s="178"/>
-      <c r="H66" s="178"/>
-      <c r="I66" s="178"/>
-      <c r="J66" s="178"/>
-      <c r="K66" s="178"/>
-      <c r="L66" s="178"/>
-      <c r="M66" s="178"/>
-      <c r="N66" s="178"/>
+      <c r="C66" s="185"/>
+      <c r="D66" s="185"/>
+      <c r="E66" s="185"/>
+      <c r="F66" s="185"/>
+      <c r="G66" s="185"/>
+      <c r="H66" s="185"/>
+      <c r="I66" s="185"/>
+      <c r="J66" s="185"/>
+      <c r="K66" s="185"/>
+      <c r="L66" s="185"/>
+      <c r="M66" s="185"/>
+      <c r="N66" s="185"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -19408,56 +19446,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="187" t="s">
+      <c r="B72" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="189" t="s">
+      <c r="C72" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="191" t="s">
+      <c r="D72" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="189" t="s">
+      <c r="E72" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="189" t="s">
+      <c r="F72" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="189" t="s">
+      <c r="G72" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="189" t="s">
+      <c r="H72" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="193" t="s">
+      <c r="I72" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="189" t="s">
+      <c r="J72" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="189" t="s">
+      <c r="K72" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="189" t="s">
+      <c r="L72" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="195" t="s">
+      <c r="M72" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="196"/>
+      <c r="N72" s="203"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="188"/>
-      <c r="C73" s="190"/>
-      <c r="D73" s="192"/>
-      <c r="E73" s="190"/>
-      <c r="F73" s="190"/>
-      <c r="G73" s="190"/>
-      <c r="H73" s="190"/>
-      <c r="I73" s="194"/>
-      <c r="J73" s="190"/>
-      <c r="K73" s="190"/>
-      <c r="L73" s="190"/>
+      <c r="B73" s="195"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="199"/>
+      <c r="E73" s="197"/>
+      <c r="F73" s="197"/>
+      <c r="G73" s="197"/>
+      <c r="H73" s="197"/>
+      <c r="I73" s="201"/>
+      <c r="J73" s="197"/>
+      <c r="K73" s="197"/>
+      <c r="L73" s="197"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -19517,31 +19555,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="197" t="s">
+      <c r="B77" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="198"/>
-      <c r="D77" s="198"/>
-      <c r="E77" s="198"/>
-      <c r="F77" s="198"/>
-      <c r="G77" s="198"/>
-      <c r="H77" s="199"/>
+      <c r="C77" s="205"/>
+      <c r="D77" s="205"/>
+      <c r="E77" s="205"/>
+      <c r="F77" s="205"/>
+      <c r="G77" s="205"/>
+      <c r="H77" s="206"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="200"/>
-      <c r="K77" s="201"/>
-      <c r="L77" s="201"/>
-      <c r="M77" s="201"/>
-      <c r="N77" s="202"/>
+      <c r="J77" s="207"/>
+      <c r="K77" s="208"/>
+      <c r="L77" s="208"/>
+      <c r="M77" s="208"/>
+      <c r="N77" s="209"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="209" t="s">
+      <c r="M79" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="209"/>
+      <c r="N79" s="216"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -19694,21 +19732,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -19818,56 +19856,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="189" t="s">
+      <c r="C9" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="191" t="s">
+      <c r="D9" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="189" t="s">
+      <c r="E9" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="189" t="s">
+      <c r="F9" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="189" t="s">
+      <c r="G9" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="189" t="s">
+      <c r="H9" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="193" t="s">
+      <c r="I9" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="189" t="s">
+      <c r="J9" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="189" t="s">
+      <c r="K9" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="189" t="s">
+      <c r="L9" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="195" t="s">
+      <c r="M9" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="196"/>
+      <c r="N9" s="203"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="188"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="190"/>
-      <c r="L10" s="190"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -20296,44 +20334,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="197" t="s">
+      <c r="B31" s="204" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="198"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="199"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="206"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="200"/>
-      <c r="K31" s="201"/>
-      <c r="L31" s="201"/>
-      <c r="M31" s="201"/>
-      <c r="N31" s="202"/>
+      <c r="J31" s="207"/>
+      <c r="K31" s="208"/>
+      <c r="L31" s="208"/>
+      <c r="M31" s="208"/>
+      <c r="N31" s="209"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="178" t="s">
+      <c r="B35" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="178"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="178"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="178"/>
-      <c r="K35" s="178"/>
-      <c r="L35" s="178"/>
-      <c r="M35" s="178"/>
-      <c r="N35" s="178"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="185"/>
+      <c r="L35" s="185"/>
+      <c r="M35" s="185"/>
+      <c r="N35" s="185"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -20443,56 +20481,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="187" t="s">
+      <c r="B42" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="189" t="s">
+      <c r="C42" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="191" t="s">
+      <c r="D42" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="189" t="s">
+      <c r="E42" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="189" t="s">
+      <c r="F42" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="189" t="s">
+      <c r="G42" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="189" t="s">
+      <c r="H42" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="193" t="s">
+      <c r="I42" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="189" t="s">
+      <c r="J42" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="189" t="s">
+      <c r="K42" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="189" t="s">
+      <c r="L42" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="195" t="s">
+      <c r="M42" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="196"/>
+      <c r="N42" s="203"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="188"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="192"/>
-      <c r="E43" s="190"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="190"/>
-      <c r="H43" s="190"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="190"/>
-      <c r="K43" s="190"/>
-      <c r="L43" s="190"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="201"/>
+      <c r="J43" s="197"/>
+      <c r="K43" s="197"/>
+      <c r="L43" s="197"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -20501,24 +20539,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="203" t="s">
+      <c r="B44" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="204"/>
-      <c r="D44" s="204"/>
-      <c r="E44" s="204"/>
-      <c r="F44" s="204"/>
-      <c r="G44" s="204"/>
-      <c r="H44" s="205"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="211"/>
+      <c r="E44" s="211"/>
+      <c r="F44" s="211"/>
+      <c r="G44" s="211"/>
+      <c r="H44" s="212"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="206"/>
-      <c r="K44" s="207"/>
-      <c r="L44" s="207"/>
-      <c r="M44" s="207"/>
-      <c r="N44" s="208"/>
+      <c r="J44" s="213"/>
+      <c r="K44" s="214"/>
+      <c r="L44" s="214"/>
+      <c r="M44" s="214"/>
+      <c r="N44" s="215"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -20882,44 +20920,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="197" t="s">
+      <c r="B63" s="204" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="198"/>
-      <c r="D63" s="198"/>
-      <c r="E63" s="198"/>
-      <c r="F63" s="198"/>
-      <c r="G63" s="198"/>
-      <c r="H63" s="199"/>
+      <c r="C63" s="205"/>
+      <c r="D63" s="205"/>
+      <c r="E63" s="205"/>
+      <c r="F63" s="205"/>
+      <c r="G63" s="205"/>
+      <c r="H63" s="206"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="200"/>
-      <c r="K63" s="201"/>
-      <c r="L63" s="201"/>
-      <c r="M63" s="201"/>
-      <c r="N63" s="202"/>
+      <c r="J63" s="207"/>
+      <c r="K63" s="208"/>
+      <c r="L63" s="208"/>
+      <c r="M63" s="208"/>
+      <c r="N63" s="209"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="178" t="s">
+      <c r="B67" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="178"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="178"/>
-      <c r="G67" s="178"/>
-      <c r="H67" s="178"/>
-      <c r="I67" s="178"/>
-      <c r="J67" s="178"/>
-      <c r="K67" s="178"/>
-      <c r="L67" s="178"/>
-      <c r="M67" s="178"/>
-      <c r="N67" s="178"/>
+      <c r="C67" s="185"/>
+      <c r="D67" s="185"/>
+      <c r="E67" s="185"/>
+      <c r="F67" s="185"/>
+      <c r="G67" s="185"/>
+      <c r="H67" s="185"/>
+      <c r="I67" s="185"/>
+      <c r="J67" s="185"/>
+      <c r="K67" s="185"/>
+      <c r="L67" s="185"/>
+      <c r="M67" s="185"/>
+      <c r="N67" s="185"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -21029,56 +21067,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="187" t="s">
+      <c r="B74" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="189" t="s">
+      <c r="C74" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="191" t="s">
+      <c r="D74" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="189" t="s">
+      <c r="E74" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="189" t="s">
+      <c r="F74" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="189" t="s">
+      <c r="G74" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="189" t="s">
+      <c r="H74" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="193" t="s">
+      <c r="I74" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="189" t="s">
+      <c r="J74" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="189" t="s">
+      <c r="K74" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="189" t="s">
+      <c r="L74" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="195" t="s">
+      <c r="M74" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="196"/>
+      <c r="N74" s="203"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="188"/>
-      <c r="C75" s="190"/>
-      <c r="D75" s="192"/>
-      <c r="E75" s="190"/>
-      <c r="F75" s="190"/>
-      <c r="G75" s="190"/>
-      <c r="H75" s="190"/>
-      <c r="I75" s="194"/>
-      <c r="J75" s="190"/>
-      <c r="K75" s="190"/>
-      <c r="L75" s="190"/>
+      <c r="B75" s="195"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="199"/>
+      <c r="E75" s="197"/>
+      <c r="F75" s="197"/>
+      <c r="G75" s="197"/>
+      <c r="H75" s="197"/>
+      <c r="I75" s="201"/>
+      <c r="J75" s="197"/>
+      <c r="K75" s="197"/>
+      <c r="L75" s="197"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -21087,24 +21125,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="203" t="s">
+      <c r="B76" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="204"/>
-      <c r="D76" s="204"/>
-      <c r="E76" s="204"/>
-      <c r="F76" s="204"/>
-      <c r="G76" s="204"/>
-      <c r="H76" s="205"/>
+      <c r="C76" s="211"/>
+      <c r="D76" s="211"/>
+      <c r="E76" s="211"/>
+      <c r="F76" s="211"/>
+      <c r="G76" s="211"/>
+      <c r="H76" s="212"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="206"/>
-      <c r="K76" s="207"/>
-      <c r="L76" s="207"/>
-      <c r="M76" s="207"/>
-      <c r="N76" s="208"/>
+      <c r="J76" s="213"/>
+      <c r="K76" s="214"/>
+      <c r="L76" s="214"/>
+      <c r="M76" s="214"/>
+      <c r="N76" s="215"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -21547,44 +21585,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="197" t="s">
+      <c r="B97" s="204" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="198"/>
-      <c r="D97" s="198"/>
-      <c r="E97" s="198"/>
-      <c r="F97" s="198"/>
-      <c r="G97" s="198"/>
-      <c r="H97" s="199"/>
+      <c r="C97" s="205"/>
+      <c r="D97" s="205"/>
+      <c r="E97" s="205"/>
+      <c r="F97" s="205"/>
+      <c r="G97" s="205"/>
+      <c r="H97" s="206"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="200"/>
-      <c r="K97" s="201"/>
-      <c r="L97" s="201"/>
-      <c r="M97" s="201"/>
-      <c r="N97" s="202"/>
+      <c r="J97" s="207"/>
+      <c r="K97" s="208"/>
+      <c r="L97" s="208"/>
+      <c r="M97" s="208"/>
+      <c r="N97" s="209"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="178" t="s">
+      <c r="B101" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="178"/>
-      <c r="D101" s="178"/>
-      <c r="E101" s="178"/>
-      <c r="F101" s="178"/>
-      <c r="G101" s="178"/>
-      <c r="H101" s="178"/>
-      <c r="I101" s="178"/>
-      <c r="J101" s="178"/>
-      <c r="K101" s="178"/>
-      <c r="L101" s="178"/>
-      <c r="M101" s="178"/>
-      <c r="N101" s="178"/>
+      <c r="C101" s="185"/>
+      <c r="D101" s="185"/>
+      <c r="E101" s="185"/>
+      <c r="F101" s="185"/>
+      <c r="G101" s="185"/>
+      <c r="H101" s="185"/>
+      <c r="I101" s="185"/>
+      <c r="J101" s="185"/>
+      <c r="K101" s="185"/>
+      <c r="L101" s="185"/>
+      <c r="M101" s="185"/>
+      <c r="N101" s="185"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -21694,56 +21732,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="187" t="s">
+      <c r="B108" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="189" t="s">
+      <c r="C108" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="191" t="s">
+      <c r="D108" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="189" t="s">
+      <c r="E108" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="189" t="s">
+      <c r="F108" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="189" t="s">
+      <c r="G108" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="189" t="s">
+      <c r="H108" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="193" t="s">
+      <c r="I108" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="189" t="s">
+      <c r="J108" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="189" t="s">
+      <c r="K108" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="189" t="s">
+      <c r="L108" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="195" t="s">
+      <c r="M108" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="196"/>
+      <c r="N108" s="203"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="188"/>
-      <c r="C109" s="190"/>
-      <c r="D109" s="192"/>
-      <c r="E109" s="190"/>
-      <c r="F109" s="190"/>
-      <c r="G109" s="190"/>
-      <c r="H109" s="190"/>
-      <c r="I109" s="194"/>
-      <c r="J109" s="190"/>
-      <c r="K109" s="190"/>
-      <c r="L109" s="190"/>
+      <c r="B109" s="195"/>
+      <c r="C109" s="197"/>
+      <c r="D109" s="199"/>
+      <c r="E109" s="197"/>
+      <c r="F109" s="197"/>
+      <c r="G109" s="197"/>
+      <c r="H109" s="197"/>
+      <c r="I109" s="201"/>
+      <c r="J109" s="197"/>
+      <c r="K109" s="197"/>
+      <c r="L109" s="197"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -21752,24 +21790,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="203" t="s">
+      <c r="B110" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="204"/>
-      <c r="D110" s="204"/>
-      <c r="E110" s="204"/>
-      <c r="F110" s="204"/>
-      <c r="G110" s="204"/>
-      <c r="H110" s="205"/>
+      <c r="C110" s="211"/>
+      <c r="D110" s="211"/>
+      <c r="E110" s="211"/>
+      <c r="F110" s="211"/>
+      <c r="G110" s="211"/>
+      <c r="H110" s="212"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="206"/>
-      <c r="K110" s="207"/>
-      <c r="L110" s="207"/>
-      <c r="M110" s="207"/>
-      <c r="N110" s="208"/>
+      <c r="J110" s="213"/>
+      <c r="K110" s="214"/>
+      <c r="L110" s="214"/>
+      <c r="M110" s="214"/>
+      <c r="N110" s="215"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -22139,44 +22177,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="197" t="s">
+      <c r="B130" s="204" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="198"/>
-      <c r="D130" s="198"/>
-      <c r="E130" s="198"/>
-      <c r="F130" s="198"/>
-      <c r="G130" s="198"/>
-      <c r="H130" s="199"/>
+      <c r="C130" s="205"/>
+      <c r="D130" s="205"/>
+      <c r="E130" s="205"/>
+      <c r="F130" s="205"/>
+      <c r="G130" s="205"/>
+      <c r="H130" s="206"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="200"/>
-      <c r="K130" s="201"/>
-      <c r="L130" s="201"/>
-      <c r="M130" s="201"/>
-      <c r="N130" s="202"/>
+      <c r="J130" s="207"/>
+      <c r="K130" s="208"/>
+      <c r="L130" s="208"/>
+      <c r="M130" s="208"/>
+      <c r="N130" s="209"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="178" t="s">
+      <c r="B134" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="178"/>
-      <c r="D134" s="178"/>
-      <c r="E134" s="178"/>
-      <c r="F134" s="178"/>
-      <c r="G134" s="178"/>
-      <c r="H134" s="178"/>
-      <c r="I134" s="178"/>
-      <c r="J134" s="178"/>
-      <c r="K134" s="178"/>
-      <c r="L134" s="178"/>
-      <c r="M134" s="178"/>
-      <c r="N134" s="178"/>
+      <c r="C134" s="185"/>
+      <c r="D134" s="185"/>
+      <c r="E134" s="185"/>
+      <c r="F134" s="185"/>
+      <c r="G134" s="185"/>
+      <c r="H134" s="185"/>
+      <c r="I134" s="185"/>
+      <c r="J134" s="185"/>
+      <c r="K134" s="185"/>
+      <c r="L134" s="185"/>
+      <c r="M134" s="185"/>
+      <c r="N134" s="185"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -22286,56 +22324,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="187" t="s">
+      <c r="B141" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="189" t="s">
+      <c r="C141" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="191" t="s">
+      <c r="D141" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="189" t="s">
+      <c r="E141" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="189" t="s">
+      <c r="F141" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="189" t="s">
+      <c r="G141" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="189" t="s">
+      <c r="H141" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="193" t="s">
+      <c r="I141" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="189" t="s">
+      <c r="J141" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="189" t="s">
+      <c r="K141" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="189" t="s">
+      <c r="L141" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="195" t="s">
+      <c r="M141" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="196"/>
+      <c r="N141" s="203"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="188"/>
-      <c r="C142" s="190"/>
-      <c r="D142" s="192"/>
-      <c r="E142" s="190"/>
-      <c r="F142" s="190"/>
-      <c r="G142" s="190"/>
-      <c r="H142" s="190"/>
-      <c r="I142" s="194"/>
-      <c r="J142" s="190"/>
-      <c r="K142" s="190"/>
-      <c r="L142" s="190"/>
+      <c r="B142" s="195"/>
+      <c r="C142" s="197"/>
+      <c r="D142" s="199"/>
+      <c r="E142" s="197"/>
+      <c r="F142" s="197"/>
+      <c r="G142" s="197"/>
+      <c r="H142" s="197"/>
+      <c r="I142" s="201"/>
+      <c r="J142" s="197"/>
+      <c r="K142" s="197"/>
+      <c r="L142" s="197"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -22344,24 +22382,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="203" t="s">
+      <c r="B143" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="204"/>
-      <c r="D143" s="204"/>
-      <c r="E143" s="204"/>
-      <c r="F143" s="204"/>
-      <c r="G143" s="204"/>
-      <c r="H143" s="205"/>
+      <c r="C143" s="211"/>
+      <c r="D143" s="211"/>
+      <c r="E143" s="211"/>
+      <c r="F143" s="211"/>
+      <c r="G143" s="211"/>
+      <c r="H143" s="212"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="206"/>
-      <c r="K143" s="207"/>
-      <c r="L143" s="207"/>
-      <c r="M143" s="207"/>
-      <c r="N143" s="208"/>
+      <c r="J143" s="213"/>
+      <c r="K143" s="214"/>
+      <c r="L143" s="214"/>
+      <c r="M143" s="214"/>
+      <c r="N143" s="215"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -22687,44 +22725,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="197" t="s">
+      <c r="B161" s="204" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="198"/>
-      <c r="D161" s="198"/>
-      <c r="E161" s="198"/>
-      <c r="F161" s="198"/>
-      <c r="G161" s="198"/>
-      <c r="H161" s="199"/>
+      <c r="C161" s="205"/>
+      <c r="D161" s="205"/>
+      <c r="E161" s="205"/>
+      <c r="F161" s="205"/>
+      <c r="G161" s="205"/>
+      <c r="H161" s="206"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="200"/>
-      <c r="K161" s="201"/>
-      <c r="L161" s="201"/>
-      <c r="M161" s="201"/>
-      <c r="N161" s="202"/>
+      <c r="J161" s="207"/>
+      <c r="K161" s="208"/>
+      <c r="L161" s="208"/>
+      <c r="M161" s="208"/>
+      <c r="N161" s="209"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="178" t="s">
+      <c r="B165" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="178"/>
-      <c r="D165" s="178"/>
-      <c r="E165" s="178"/>
-      <c r="F165" s="178"/>
-      <c r="G165" s="178"/>
-      <c r="H165" s="178"/>
-      <c r="I165" s="178"/>
-      <c r="J165" s="178"/>
-      <c r="K165" s="178"/>
-      <c r="L165" s="178"/>
-      <c r="M165" s="178"/>
-      <c r="N165" s="178"/>
+      <c r="C165" s="185"/>
+      <c r="D165" s="185"/>
+      <c r="E165" s="185"/>
+      <c r="F165" s="185"/>
+      <c r="G165" s="185"/>
+      <c r="H165" s="185"/>
+      <c r="I165" s="185"/>
+      <c r="J165" s="185"/>
+      <c r="K165" s="185"/>
+      <c r="L165" s="185"/>
+      <c r="M165" s="185"/>
+      <c r="N165" s="185"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -22834,56 +22872,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="187" t="s">
+      <c r="B172" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="189" t="s">
+      <c r="C172" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="191" t="s">
+      <c r="D172" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="189" t="s">
+      <c r="E172" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="189" t="s">
+      <c r="F172" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="189" t="s">
+      <c r="G172" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="189" t="s">
+      <c r="H172" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="193" t="s">
+      <c r="I172" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="189" t="s">
+      <c r="J172" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="189" t="s">
+      <c r="K172" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="189" t="s">
+      <c r="L172" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="195" t="s">
+      <c r="M172" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="196"/>
+      <c r="N172" s="203"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="188"/>
-      <c r="C173" s="190"/>
-      <c r="D173" s="192"/>
-      <c r="E173" s="190"/>
-      <c r="F173" s="190"/>
-      <c r="G173" s="190"/>
-      <c r="H173" s="190"/>
-      <c r="I173" s="194"/>
-      <c r="J173" s="190"/>
-      <c r="K173" s="190"/>
-      <c r="L173" s="190"/>
+      <c r="B173" s="195"/>
+      <c r="C173" s="197"/>
+      <c r="D173" s="199"/>
+      <c r="E173" s="197"/>
+      <c r="F173" s="197"/>
+      <c r="G173" s="197"/>
+      <c r="H173" s="197"/>
+      <c r="I173" s="201"/>
+      <c r="J173" s="197"/>
+      <c r="K173" s="197"/>
+      <c r="L173" s="197"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -22892,24 +22930,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="203" t="s">
+      <c r="B174" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="204"/>
-      <c r="D174" s="204"/>
-      <c r="E174" s="204"/>
-      <c r="F174" s="204"/>
-      <c r="G174" s="204"/>
-      <c r="H174" s="205"/>
+      <c r="C174" s="211"/>
+      <c r="D174" s="211"/>
+      <c r="E174" s="211"/>
+      <c r="F174" s="211"/>
+      <c r="G174" s="211"/>
+      <c r="H174" s="212"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="206"/>
-      <c r="K174" s="207"/>
-      <c r="L174" s="207"/>
-      <c r="M174" s="207"/>
-      <c r="N174" s="208"/>
+      <c r="J174" s="213"/>
+      <c r="K174" s="214"/>
+      <c r="L174" s="214"/>
+      <c r="M174" s="214"/>
+      <c r="N174" s="215"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -22975,31 +23013,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="203" t="s">
+      <c r="B178" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="204"/>
-      <c r="D178" s="204"/>
-      <c r="E178" s="204"/>
-      <c r="F178" s="204"/>
-      <c r="G178" s="204"/>
-      <c r="H178" s="205"/>
+      <c r="C178" s="211"/>
+      <c r="D178" s="211"/>
+      <c r="E178" s="211"/>
+      <c r="F178" s="211"/>
+      <c r="G178" s="211"/>
+      <c r="H178" s="212"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="206"/>
-      <c r="K178" s="207"/>
-      <c r="L178" s="207"/>
-      <c r="M178" s="207"/>
-      <c r="N178" s="208"/>
+      <c r="J178" s="213"/>
+      <c r="K178" s="214"/>
+      <c r="L178" s="214"/>
+      <c r="M178" s="214"/>
+      <c r="N178" s="215"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="209" t="s">
+      <c r="M180" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="209"/>
+      <c r="N180" s="216"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
